--- a/output/ValueSet-VSDiagnosticosSCT.xlsx
+++ b/output/ValueSet-VSDiagnosticosSCT.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from Absent and Unkno" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from absent-unknown-u" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.6</t>
+    <t>1.8.7</t>
   </si>
   <si>
     <t>Name</t>

--- a/output/ValueSet-VSDiagnosticosSCT.xlsx
+++ b/output/ValueSet-VSDiagnosticosSCT.xlsx
@@ -73,7 +73,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Chile (http://hl7chile.cl, chair@hl7chile.cl)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/output/ValueSet-VSDiagnosticosSCT.xlsx
+++ b/output/ValueSet-VSDiagnosticosSCT.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from absent-unknown-u" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from CodeSystem-absen" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.7</t>
+    <t>1.8.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -118,7 +118,7 @@
     <t>http://snomed.info/sct</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/ips/CodeSystem/absent-unknown-uv-ips</t>
+    <t>https://hl7.org/fhir/uv/ips/STU1.1/CodeSystem-absent-unknown-uv-ips.html</t>
   </si>
 </sst>
 </file>

--- a/output/ValueSet-VSDiagnosticosSCT.xlsx
+++ b/output/ValueSet-VSDiagnosticosSCT.xlsx
@@ -8,13 +8,13 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from absent-unknown-u" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from SNOMED CT 2" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.7</t>
+    <t>1.8.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -103,10 +103,16 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>Codes</t>
-  </si>
-  <si>
-    <t>All codes</t>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>concept</t>
+  </si>
+  <si>
+    <t>descendent-of</t>
+  </si>
+  <si>
+    <t>404684003</t>
   </si>
   <si>
     <t/>
@@ -118,7 +124,13 @@
     <t>http://snomed.info/sct</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/ips/CodeSystem/absent-unknown-uv-ips</t>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>160245001</t>
+  </si>
+  <si>
+    <t>No current problems or disability</t>
   </si>
 </sst>
 </file>
@@ -387,7 +399,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,28 +411,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>32</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -442,28 +466,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/output/ValueSet-VSDiagnosticosSCT.xlsx
+++ b/output/ValueSet-VSDiagnosticosSCT.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.11</t>
+    <t>1.8.12</t>
   </si>
   <si>
     <t>Name</t>

--- a/output/ValueSet-VSDiagnosticosSCT.xlsx
+++ b/output/ValueSet-VSDiagnosticosSCT.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.12</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
